--- a/weekly_online_paper_metrices/output/2023-07-16.xlsx
+++ b/weekly_online_paper_metrices/output/2023-07-16.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>2267</v>
+        <v>2296</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>1690</v>
+        <v>1709</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>1924</v>
+        <v>1934</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>2451</v>
+        <v>2460</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="G51">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="H51">
         <v>11</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="G55">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>2768</v>
+        <v>2776</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G58">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G61">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="H61">
         <v>18</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G71">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>3090</v>
+        <v>3097</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="G76">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="G78">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="G79">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G87">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="G91">
-        <v>3706</v>
+        <v>3718</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G92">
-        <v>3985</v>
+        <v>3989</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G93">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="H93">
         <v>5</v>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="G96">
-        <v>3518</v>
+        <v>3523</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -6377,13 +6377,13 @@
         </is>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
